--- a/new_format.xlsx
+++ b/new_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinesh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinesh/Workspace/COAttainment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77811012-9C85-9545-A783-B8556DB3486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C074F8B1-11D4-D848-ACBC-F0B57E6F2CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="2500" windowWidth="24460" windowHeight="13800" xr2:uid="{090C1C21-33E4-3D48-B7F6-BB7A1D5F9DC2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>RollNo</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Continuous Evaluation</t>
+  </si>
+  <si>
+    <t>End Semester</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#.00"/>
+    <numFmt numFmtId="164" formatCode="#.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A135C1-7B6F-FB45-B4D9-F1F1286BD37B}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F2" sqref="F2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +668,7 @@
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +684,12 @@
       <c r="E1" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -698,8 +705,11 @@
       <c r="E2">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="E3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -732,8 +745,11 @@
       <c r="E4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -749,8 +765,11 @@
       <c r="E5">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,8 +785,11 @@
       <c r="E6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -783,8 +805,11 @@
       <c r="E7">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -800,8 +825,11 @@
       <c r="E8">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -817,8 +845,11 @@
       <c r="E9">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,8 +865,11 @@
       <c r="E10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -851,8 +885,11 @@
       <c r="E11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -868,8 +905,11 @@
       <c r="E12">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -885,8 +925,11 @@
       <c r="E13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -902,8 +945,11 @@
       <c r="E14">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,8 +965,11 @@
       <c r="E15">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -936,8 +985,11 @@
       <c r="E16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -953,8 +1005,11 @@
       <c r="E17">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -970,8 +1025,11 @@
       <c r="E18">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -987,8 +1045,11 @@
       <c r="E19">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1004,8 +1065,11 @@
       <c r="E20">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1021,8 +1085,11 @@
       <c r="E21">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1038,8 +1105,11 @@
       <c r="E22">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1055,8 +1125,11 @@
       <c r="E23">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1072,8 +1145,11 @@
       <c r="E24">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1089,8 +1165,11 @@
       <c r="E25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1106,8 +1185,11 @@
       <c r="E26">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1123,8 +1205,11 @@
       <c r="E27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1140,8 +1225,11 @@
       <c r="E28">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1157,8 +1245,11 @@
       <c r="E29">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1174,8 +1265,11 @@
       <c r="E30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1191,8 +1285,11 @@
       <c r="E31">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1208,8 +1305,11 @@
       <c r="E32">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1225,8 +1325,11 @@
       <c r="E33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1240,6 +1343,9 @@
         <v>26</v>
       </c>
       <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
         <v>36</v>
       </c>
     </row>
